--- a/students_evaluation/uploaded-files/Book1.xlsx
+++ b/students_evaluation/uploaded-files/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\sps\students_evaluation\uploaded-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>PRNNO</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>result</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
